--- a/excel_files/playtv_plans.xlsx
+++ b/excel_files/playtv_plans.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dimit\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dimitar\Coding\playtv-compare-plans\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="152">
   <si>
     <t>БНТ 1</t>
   </si>
@@ -478,6 +478,28 @@
 Период: 3 месеца
 33.00 лв.*
  * цена за месец след изтичане на промоцията</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Play Sport</t>
+  </si>
+  <si>
+    <t>113TV (47HD) / канала
+до 4 екрана
+Период: 3 месеца
+27.00 лв.*
+ * цена за месец след изтичане на промоцията</t>
+  </si>
+  <si>
+    <t>DIEMA SPORT2</t>
+  </si>
+  <si>
+    <t>DIEMA SPORT3</t>
+  </si>
+  <si>
+    <t>DIEMA SPORT3 4K</t>
   </si>
 </sst>
 </file>
@@ -523,7 +545,397 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="45">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -860,18 +1272,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>125</v>
       </c>
@@ -882,10 +1294,13 @@
         <v>111</v>
       </c>
       <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>142</v>
       </c>
@@ -896,10 +1311,13 @@
         <v>144</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -912,8 +1330,11 @@
       <c r="D3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -926,8 +1347,14 @@
       <c r="D4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -937,8 +1364,11 @@
       <c r="D5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -951,8 +1381,11 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -965,8 +1398,11 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -979,8 +1415,11 @@
       <c r="D8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -993,8 +1432,14 @@
       <c r="D9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>146</v>
+      </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1449,11 @@
       <c r="D10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1018,8 +1466,11 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1032,8 +1483,11 @@
       <c r="D12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1046,8 +1500,11 @@
       <c r="D13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1060,8 +1517,11 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1074,13 +1534,28 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1093,8 +1568,11 @@
       <c r="D17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1107,8 +1585,11 @@
       <c r="D18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1121,8 +1602,14 @@
       <c r="D19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
@@ -1132,8 +1619,14 @@
       <c r="D20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
@@ -1143,8 +1636,14 @@
       <c r="D21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>146</v>
+      </c>
       <c r="B22" t="s">
         <v>18</v>
       </c>
@@ -1154,8 +1653,14 @@
       <c r="D22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -1165,8 +1670,14 @@
       <c r="D23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>146</v>
+      </c>
       <c r="B24" t="s">
         <v>20</v>
       </c>
@@ -1176,8 +1687,11 @@
       <c r="D24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1190,8 +1704,11 @@
       <c r="D25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1204,8 +1721,11 @@
       <c r="D26" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1218,8 +1738,11 @@
       <c r="D27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1232,8 +1755,11 @@
       <c r="D28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1246,8 +1772,11 @@
       <c r="D29" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1260,8 +1789,11 @@
       <c r="D30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1274,8 +1806,11 @@
       <c r="D31" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -1288,8 +1823,11 @@
       <c r="D32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -1302,8 +1840,11 @@
       <c r="D33" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1316,24 +1857,45 @@
       <c r="D34" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
       <c r="C36" t="s">
         <v>32</v>
       </c>
       <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1346,8 +1908,11 @@
       <c r="D37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -1360,8 +1925,11 @@
       <c r="D38" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -1374,8 +1942,11 @@
       <c r="D39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -1388,8 +1959,11 @@
       <c r="D40" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -1402,8 +1976,11 @@
       <c r="D41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1416,8 +1993,11 @@
       <c r="D42" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -1430,8 +2010,11 @@
       <c r="D43" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -1444,8 +2027,11 @@
       <c r="D44" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -1458,8 +2044,11 @@
       <c r="D45" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -1472,8 +2061,11 @@
       <c r="D46" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -1486,8 +2078,11 @@
       <c r="D47" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -1500,8 +2095,11 @@
       <c r="D48" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -1514,8 +2112,11 @@
       <c r="D49" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -1528,8 +2129,11 @@
       <c r="D50" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -1542,8 +2146,11 @@
       <c r="D51" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -1556,8 +2163,11 @@
       <c r="D52" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -1570,8 +2180,11 @@
       <c r="D53" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -1584,8 +2197,11 @@
       <c r="D54" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -1598,8 +2214,11 @@
       <c r="D55" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -1612,8 +2231,11 @@
       <c r="D56" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -1626,8 +2248,11 @@
       <c r="D57" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -1640,8 +2265,11 @@
       <c r="D58" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -1654,8 +2282,11 @@
       <c r="D59" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -1668,8 +2299,11 @@
       <c r="D60" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -1682,8 +2316,11 @@
       <c r="D61" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -1696,8 +2333,11 @@
       <c r="D62" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -1710,8 +2350,11 @@
       <c r="D63" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -1724,8 +2367,11 @@
       <c r="D64" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -1738,8 +2384,11 @@
       <c r="D65" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -1752,8 +2401,11 @@
       <c r="D66" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -1766,8 +2418,11 @@
       <c r="D67" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -1780,8 +2435,11 @@
       <c r="D68" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -1794,8 +2452,11 @@
       <c r="D69" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -1808,8 +2469,11 @@
       <c r="D70" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -1822,8 +2486,11 @@
       <c r="D71" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -1836,8 +2503,11 @@
       <c r="D72" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -1850,8 +2520,11 @@
       <c r="D73" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>70</v>
       </c>
@@ -1864,8 +2537,11 @@
       <c r="D74" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -1878,8 +2554,11 @@
       <c r="D75" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>72</v>
       </c>
@@ -1892,8 +2571,11 @@
       <c r="D76" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>73</v>
       </c>
@@ -1906,8 +2588,11 @@
       <c r="D77" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>74</v>
       </c>
@@ -1920,8 +2605,11 @@
       <c r="D78" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>75</v>
       </c>
@@ -1934,8 +2622,11 @@
       <c r="D79" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>76</v>
       </c>
@@ -1948,8 +2639,11 @@
       <c r="D80" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -1962,8 +2656,11 @@
       <c r="D81" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>78</v>
       </c>
@@ -1976,8 +2673,11 @@
       <c r="D82" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>79</v>
       </c>
@@ -1990,8 +2690,11 @@
       <c r="D83" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>80</v>
       </c>
@@ -2004,8 +2707,11 @@
       <c r="D84" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>81</v>
       </c>
@@ -2018,8 +2724,11 @@
       <c r="D85" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -2032,8 +2741,11 @@
       <c r="D86" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -2046,8 +2758,11 @@
       <c r="D87" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>84</v>
       </c>
@@ -2060,8 +2775,11 @@
       <c r="D88" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -2074,8 +2792,11 @@
       <c r="D89" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>86</v>
       </c>
@@ -2088,8 +2809,11 @@
       <c r="D90" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>87</v>
       </c>
@@ -2102,8 +2826,11 @@
       <c r="D91" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>88</v>
       </c>
@@ -2116,8 +2843,11 @@
       <c r="D92" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>89</v>
       </c>
@@ -2130,8 +2860,11 @@
       <c r="D93" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>90</v>
       </c>
@@ -2144,8 +2877,11 @@
       <c r="D94" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -2158,8 +2894,11 @@
       <c r="D95" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -2172,8 +2911,11 @@
       <c r="D96" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>93</v>
       </c>
@@ -2186,8 +2928,11 @@
       <c r="D97" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>94</v>
       </c>
@@ -2200,8 +2945,11 @@
       <c r="D98" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>95</v>
       </c>
@@ -2214,8 +2962,11 @@
       <c r="D99" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -2228,8 +2979,11 @@
       <c r="D100" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>97</v>
       </c>
@@ -2242,8 +2996,11 @@
       <c r="D101" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>98</v>
       </c>
@@ -2256,8 +3013,11 @@
       <c r="D102" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>99</v>
       </c>
@@ -2270,280 +3030,724 @@
       <c r="D103" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" t="s">
+        <v>146</v>
+      </c>
       <c r="C104" t="s">
         <v>100</v>
       </c>
       <c r="D104" t="s">
+        <v>146</v>
+      </c>
+      <c r="E104" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" t="s">
+        <v>146</v>
+      </c>
       <c r="C105" t="s">
         <v>101</v>
       </c>
       <c r="D105" t="s">
+        <v>146</v>
+      </c>
+      <c r="E105" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>146</v>
+      </c>
+      <c r="B106" t="s">
+        <v>146</v>
+      </c>
       <c r="C106" t="s">
         <v>102</v>
       </c>
       <c r="D106" t="s">
+        <v>146</v>
+      </c>
+      <c r="E106" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>146</v>
+      </c>
+      <c r="B107" t="s">
+        <v>146</v>
+      </c>
       <c r="C107" t="s">
         <v>103</v>
       </c>
       <c r="D107" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>146</v>
+      </c>
+      <c r="B108" t="s">
+        <v>146</v>
+      </c>
       <c r="C108" t="s">
         <v>104</v>
       </c>
       <c r="D108" t="s">
+        <v>146</v>
+      </c>
+      <c r="E108" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109" t="s">
+        <v>146</v>
+      </c>
       <c r="C109" t="s">
         <v>105</v>
       </c>
       <c r="D109" t="s">
+        <v>146</v>
+      </c>
+      <c r="E109" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>146</v>
+      </c>
+      <c r="B110" t="s">
+        <v>146</v>
+      </c>
       <c r="C110" t="s">
         <v>106</v>
       </c>
       <c r="D110" t="s">
+        <v>146</v>
+      </c>
+      <c r="E110" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>146</v>
+      </c>
+      <c r="B111" t="s">
+        <v>146</v>
+      </c>
       <c r="C111" t="s">
         <v>107</v>
       </c>
       <c r="D111" t="s">
+        <v>146</v>
+      </c>
+      <c r="E111" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" t="s">
+        <v>146</v>
+      </c>
       <c r="C112" t="s">
         <v>108</v>
       </c>
       <c r="D112" t="s">
+        <v>146</v>
+      </c>
+      <c r="E112" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>146</v>
+      </c>
+      <c r="B113" t="s">
+        <v>146</v>
+      </c>
       <c r="C113" t="s">
         <v>109</v>
       </c>
       <c r="D113" t="s">
+        <v>146</v>
+      </c>
+      <c r="E113" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>146</v>
+      </c>
+      <c r="B114" t="s">
+        <v>146</v>
+      </c>
+      <c r="C114" t="s">
+        <v>146</v>
+      </c>
       <c r="D114" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>146</v>
+      </c>
+      <c r="B115" t="s">
+        <v>146</v>
+      </c>
+      <c r="C115" t="s">
+        <v>146</v>
+      </c>
       <c r="D115" t="s">
+        <v>149</v>
+      </c>
+      <c r="E115" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>146</v>
+      </c>
+      <c r="B116" t="s">
+        <v>146</v>
+      </c>
+      <c r="C116" t="s">
+        <v>146</v>
+      </c>
       <c r="D116" t="s">
+        <v>150</v>
+      </c>
+      <c r="E116" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>146</v>
+      </c>
+      <c r="B117" t="s">
+        <v>146</v>
+      </c>
+      <c r="C117" t="s">
+        <v>146</v>
+      </c>
       <c r="D117" t="s">
+        <v>151</v>
+      </c>
+      <c r="E117" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" t="s">
+        <v>146</v>
+      </c>
+      <c r="C118" t="s">
+        <v>146</v>
+      </c>
       <c r="D118" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>146</v>
+      </c>
+      <c r="B119" t="s">
+        <v>146</v>
+      </c>
+      <c r="C119" t="s">
+        <v>146</v>
+      </c>
       <c r="D119" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>146</v>
+      </c>
+      <c r="B120" t="s">
+        <v>146</v>
+      </c>
+      <c r="C120" t="s">
+        <v>146</v>
+      </c>
       <c r="D120" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" t="s">
+        <v>146</v>
+      </c>
       <c r="D121" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>146</v>
+      </c>
+      <c r="B122" t="s">
+        <v>146</v>
+      </c>
+      <c r="C122" t="s">
+        <v>146</v>
+      </c>
       <c r="D122" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123" t="s">
+        <v>146</v>
+      </c>
+      <c r="C123" t="s">
+        <v>146</v>
+      </c>
       <c r="D123" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>146</v>
+      </c>
+      <c r="B124" t="s">
+        <v>146</v>
+      </c>
+      <c r="C124" t="s">
+        <v>146</v>
+      </c>
       <c r="D124" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>146</v>
+      </c>
+      <c r="B125" t="s">
+        <v>146</v>
+      </c>
+      <c r="C125" t="s">
+        <v>146</v>
+      </c>
       <c r="D125" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" t="s">
+        <v>146</v>
+      </c>
+      <c r="C126" t="s">
+        <v>146</v>
+      </c>
       <c r="D126" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" t="s">
+        <v>146</v>
+      </c>
+      <c r="C127" t="s">
+        <v>146</v>
+      </c>
       <c r="D127" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" t="s">
+        <v>146</v>
+      </c>
+      <c r="C128" t="s">
+        <v>146</v>
+      </c>
       <c r="D128" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" t="s">
+        <v>146</v>
+      </c>
+      <c r="C129" t="s">
+        <v>146</v>
+      </c>
       <c r="D129" t="s">
+        <v>146</v>
+      </c>
+      <c r="E129" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>113</v>
       </c>
+      <c r="B130" t="s">
+        <v>146</v>
+      </c>
+      <c r="C130" t="s">
+        <v>146</v>
+      </c>
       <c r="D130" t="s">
+        <v>146</v>
+      </c>
+      <c r="E130" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>114</v>
       </c>
+      <c r="B131" t="s">
+        <v>146</v>
+      </c>
+      <c r="C131" t="s">
+        <v>146</v>
+      </c>
       <c r="D131" t="s">
+        <v>146</v>
+      </c>
+      <c r="E131" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>115</v>
       </c>
+      <c r="B132" t="s">
+        <v>146</v>
+      </c>
+      <c r="C132" t="s">
+        <v>146</v>
+      </c>
       <c r="D132" t="s">
+        <v>146</v>
+      </c>
+      <c r="E132" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>116</v>
       </c>
+      <c r="B133" t="s">
+        <v>146</v>
+      </c>
+      <c r="C133" t="s">
+        <v>146</v>
+      </c>
       <c r="D133" t="s">
+        <v>146</v>
+      </c>
+      <c r="E133" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>117</v>
       </c>
+      <c r="B134" t="s">
+        <v>146</v>
+      </c>
+      <c r="C134" t="s">
+        <v>146</v>
+      </c>
       <c r="D134" t="s">
+        <v>146</v>
+      </c>
+      <c r="E134" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>118</v>
       </c>
+      <c r="B135" t="s">
+        <v>146</v>
+      </c>
+      <c r="C135" t="s">
+        <v>146</v>
+      </c>
       <c r="D135" t="s">
+        <v>146</v>
+      </c>
+      <c r="E135" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>119</v>
       </c>
+      <c r="B136" t="s">
+        <v>146</v>
+      </c>
+      <c r="C136" t="s">
+        <v>146</v>
+      </c>
       <c r="D136" t="s">
+        <v>146</v>
+      </c>
+      <c r="E136" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>120</v>
       </c>
+      <c r="B137" t="s">
+        <v>146</v>
+      </c>
+      <c r="C137" t="s">
+        <v>146</v>
+      </c>
       <c r="D137" t="s">
+        <v>146</v>
+      </c>
+      <c r="E137" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>121</v>
       </c>
+      <c r="B138" t="s">
+        <v>146</v>
+      </c>
+      <c r="C138" t="s">
+        <v>146</v>
+      </c>
       <c r="D138" t="s">
+        <v>146</v>
+      </c>
+      <c r="E138" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>122</v>
       </c>
+      <c r="B139" t="s">
+        <v>146</v>
+      </c>
+      <c r="C139" t="s">
+        <v>146</v>
+      </c>
       <c r="D139" t="s">
+        <v>146</v>
+      </c>
+      <c r="E139" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>117</v>
       </c>
+      <c r="B140" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140" t="s">
+        <v>146</v>
+      </c>
       <c r="D140" t="s">
+        <v>146</v>
+      </c>
+      <c r="E140" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>123</v>
       </c>
+      <c r="B141" t="s">
+        <v>146</v>
+      </c>
+      <c r="C141" t="s">
+        <v>146</v>
+      </c>
       <c r="D141" t="s">
+        <v>146</v>
+      </c>
+      <c r="E141" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>124</v>
       </c>
+      <c r="B142" t="s">
+        <v>146</v>
+      </c>
+      <c r="C142" t="s">
+        <v>146</v>
+      </c>
       <c r="D142" t="s">
+        <v>146</v>
+      </c>
+      <c r="E142" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B37:B103 B3:C34 B104:C1048576 C35:C103">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="B37:B103 B3:C15 B143:C1048576 B17:C34 C35:C113">
+    <cfRule type="duplicateValues" dxfId="33" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C4 B5:C122 A5:A103 A117:A142">
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  <conditionalFormatting sqref="A3:C4 B5:C15 A130:A142 B17:C103 A5:A103 C104:C113">
+    <cfRule type="duplicateValues" dxfId="31" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:D15 A16:C103 A117:C129 B104:C116 A130:A142 D16:D142 B130:C141">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="A3:C15 A130:A142 E17:E142 C104:C113 A16 A17:C103 E3:E15">
+    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:C16 E16">
+    <cfRule type="duplicateValues" dxfId="27" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:A129">
+    <cfRule type="duplicateValues" dxfId="25" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104:A129">
+    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B142">
+    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B104:B142">
+    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114:C142">
+    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16">
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D126:D144">
+    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:E103 D114:D128 A104:C128 E104:E128 A129:E1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D145:D1048576 D3:D15 D17:D103 D114:D125">
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D15 D17:D103 D114:D125">
+    <cfRule type="duplicateValues" dxfId="7" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104:D113">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D104:D113">
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D129:D142">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel_files/playtv_plans.xlsx
+++ b/excel_files/playtv_plans.xlsx
@@ -545,247 +545,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1275,7 +1035,7 @@
   <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3212,7 +2972,7 @@
         <v>146</v>
       </c>
       <c r="C114" t="s">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="D114" t="s">
         <v>127</v>
@@ -3698,56 +3458,56 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B37:B103 B3:C15 B143:C1048576 B17:C34 C35:C113">
-    <cfRule type="duplicateValues" dxfId="33" priority="14"/>
+  <conditionalFormatting sqref="B37:B103 B3:C15 C16 B17:B34 C18:C114 B143:C1048576">
+    <cfRule type="duplicateValues" dxfId="20" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C4 B5:C15 A130:A142 B17:C103 A5:A103 C104:C113">
-    <cfRule type="duplicateValues" dxfId="31" priority="15"/>
+  <conditionalFormatting sqref="A3:C4 B5:C15 C16 A130:A142 B17:B103 C18:C114 A5:A103">
+    <cfRule type="duplicateValues" dxfId="19" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3:C15 A130:A142 E17:E142 C104:C113 A16 A17:C103 E3:E15">
-    <cfRule type="duplicateValues" dxfId="29" priority="13"/>
+  <conditionalFormatting sqref="A3:C15 C16 A130:A142 E17:E142 A16 A17:B103 C18:C114 E3:E15">
+    <cfRule type="duplicateValues" dxfId="18" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C16 E16">
-    <cfRule type="duplicateValues" dxfId="27" priority="12"/>
+  <conditionalFormatting sqref="B16 E16 C16:C17">
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:A129">
-    <cfRule type="duplicateValues" dxfId="25" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A104:A129">
-    <cfRule type="duplicateValues" dxfId="23" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B142">
-    <cfRule type="duplicateValues" dxfId="21" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B104:B142">
-    <cfRule type="duplicateValues" dxfId="19" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C114:C142">
-    <cfRule type="duplicateValues" dxfId="17" priority="7"/>
+  <conditionalFormatting sqref="C115:C143">
+    <cfRule type="duplicateValues" dxfId="12" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D126:D144">
-    <cfRule type="duplicateValues" dxfId="13" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:E103 D114:D128 A104:C128 E104:E128 A129:E1048576">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
+  <conditionalFormatting sqref="A1:E15 D16:E103 D114:D128 E104:E128 D129:E1048576 A16:C1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D145:D1048576 D3:D15 D17:D103 D114:D125">
-    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D15 D17:D103 D114:D125">
     <cfRule type="duplicateValues" dxfId="7" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:D113">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:D113">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D129:D142">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
